--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,75 +55,90 @@
     <t>died</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>anxiety</t>
   </si>
   <si>
     <t>recession</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -133,70 +148,82 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>best</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
@@ -205,151 +232,145 @@
     <t>boost</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>dear</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>gt</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
+    <t>share</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>essential</t>
   </si>
   <si>
     <t>want</t>
   </si>
   <si>
-    <t>essential</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stores</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>store</t>
+    <t>shop</t>
   </si>
   <si>
     <t>grocery</t>
@@ -361,22 +382,19 @@
     <t>stay</t>
   </si>
   <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>co</t>
   </si>
   <si>
     <t>food</t>
@@ -743,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,10 +769,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -833,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -883,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L4">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -904,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -912,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -930,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>0.9615384615384616</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M5">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -962,13 +980,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -980,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>0.9473684210526315</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1012,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1030,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1054,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1062,13 +1080,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6917808219178082</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>202</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1080,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.9347826086956522</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1104,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1112,13 +1130,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.72</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1130,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1162,13 +1180,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.68</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1180,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.8983050847457628</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1204,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1212,38 +1230,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.6917808219178082</v>
       </c>
       <c r="C11">
+        <v>202</v>
+      </c>
+      <c r="D11">
+        <v>202</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L11">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>13</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11">
-        <v>0.875</v>
-      </c>
-      <c r="L11">
-        <v>98</v>
-      </c>
-      <c r="M11">
-        <v>98</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1254,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1262,13 +1280,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5806451612903226</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1280,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.8666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1304,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1312,49 +1330,49 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5666666666666667</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L13">
+        <v>95</v>
+      </c>
+      <c r="M13">
+        <v>95</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>17</v>
-      </c>
-      <c r="D13">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>13</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L13">
-        <v>23</v>
-      </c>
-      <c r="M13">
-        <v>23</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1362,13 +1380,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5652173913043478</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1380,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K14">
         <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1404,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1412,49 +1430,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5526315789473685</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15">
+        <v>0.825</v>
+      </c>
+      <c r="L15">
+        <v>99</v>
+      </c>
+      <c r="M15">
+        <v>99</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>21</v>
-      </c>
-      <c r="D15">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>17</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15">
-        <v>0.8125</v>
-      </c>
-      <c r="L15">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1462,13 +1480,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5384615384615384</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1480,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.8103448275862069</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1504,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1533,16 +1551,16 @@
         <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.8046875</v>
+        <v>0.8203125</v>
       </c>
       <c r="L17">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1554,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1562,13 +1580,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4864864864864865</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1580,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.7926829268292683</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L18">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M18">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1604,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1612,13 +1630,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4516129032258064</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1630,19 +1648,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.7843137254901961</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1654,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1662,37 +1680,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4324324324324325</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>16</v>
       </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>21</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.7735849056603774</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L20">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1704,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1712,13 +1730,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3972868217054263</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C21">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1730,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.7676056338028169</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L21">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1754,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1783,16 +1801,16 @@
         <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.7666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1804,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1812,13 +1830,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3728813559322034</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1830,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K23">
         <v>0.746031746031746</v>
@@ -1862,13 +1880,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3691275167785235</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="D24">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1880,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>94</v>
+        <v>325</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.7446808510638298</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1904,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1912,13 +1930,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3544973544973545</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C25">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1930,19 +1948,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.7391304347826086</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1954,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1962,13 +1980,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3137254901960784</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1980,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.71875</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2004,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2012,49 +2030,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2745098039215687</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>24</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L27">
+        <v>33</v>
+      </c>
+      <c r="M27">
+        <v>33</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>14</v>
-      </c>
-      <c r="D27">
-        <v>14</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>37</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27">
-        <v>0.7125</v>
-      </c>
-      <c r="L27">
-        <v>114</v>
-      </c>
-      <c r="M27">
-        <v>114</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2062,13 +2080,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2555555555555555</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2080,19 +2098,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.7083333333333334</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2112,7 +2130,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2467532467532468</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C29">
         <v>19</v>
@@ -2130,19 +2148,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.7037037037037037</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2154,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2162,13 +2180,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2203389830508475</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2180,19 +2198,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.6944444444444444</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2204,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2212,37 +2230,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K31">
-        <v>0.648936170212766</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2254,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2262,13 +2280,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1984126984126984</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C32">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2280,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>202</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.6428571428571429</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2304,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2312,13 +2330,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1179624664879357</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C33">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2330,19 +2348,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>329</v>
+        <v>55</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K33">
-        <v>0.6318537859007833</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L33">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2354,21 +2372,45 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>66</v>
+      </c>
       <c r="J34" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>0.6279069767441861</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2380,21 +2422,45 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.2549019607843137</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>38</v>
+      </c>
       <c r="J35" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K35">
-        <v>0.62</v>
+        <v>0.6109660574412533</v>
       </c>
       <c r="L35">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2406,12 +2472,36 @@
         <v>0</v>
       </c>
       <c r="Q35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.2375</v>
+      </c>
+      <c r="C36">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="D36">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>61</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K36">
         <v>0.6071428571428571</v>
@@ -2436,17 +2526,41 @@
       </c>
     </row>
     <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.1984126984126984</v>
+      </c>
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>202</v>
+      </c>
       <c r="J37" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K37">
-        <v>0.6071428571428571</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2458,15 +2572,39 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>11</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C38">
+        <v>43</v>
+      </c>
+      <c r="D38">
+        <v>43</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>330</v>
+      </c>
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>0.6041666666666666</v>
+        <v>0.58</v>
       </c>
       <c r="L38">
         <v>29</v>
@@ -2484,47 +2622,71 @@
         <v>0</v>
       </c>
       <c r="Q38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.00426509186351706</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>72</v>
+      </c>
+      <c r="E39">
+        <v>0.82</v>
+      </c>
+      <c r="F39">
+        <v>0.18</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>3035</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <v>0.5777777777777777</v>
+      </c>
+      <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.6</v>
-      </c>
-      <c r="L39">
-        <v>27</v>
-      </c>
-      <c r="M39">
-        <v>27</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K40">
-        <v>0.5823529411764706</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L40">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="M40">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2536,21 +2698,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>142</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K41">
-        <v>0.5730337078651685</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L41">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2562,21 +2724,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>0.5588235294117647</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2588,21 +2750,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>0.5559322033898305</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L43">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2614,21 +2776,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>131</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K44">
-        <v>0.55</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2640,21 +2802,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K45">
-        <v>0.5454545454545454</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2666,47 +2828,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K46">
-        <v>0.5161290322580645</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>0.5142857142857142</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2718,21 +2880,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2744,21 +2906,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K49">
-        <v>0.4853556485355648</v>
+        <v>0.484375</v>
       </c>
       <c r="L49">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="M49">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2770,21 +2932,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K50">
-        <v>0.4814814814814815</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2796,21 +2958,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K51">
-        <v>0.4769230769230769</v>
+        <v>0.475</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2822,21 +2984,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K52">
-        <v>0.4657534246575342</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L52">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2848,21 +3010,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K53">
-        <v>0.453125</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2874,21 +3036,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K54">
-        <v>0.4487179487179487</v>
+        <v>0.45</v>
       </c>
       <c r="L54">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2900,21 +3062,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K55">
-        <v>0.4285714285714285</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L55">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2926,21 +3088,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K56">
-        <v>0.3829787234042553</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2952,21 +3114,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K57">
-        <v>0.375</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2978,21 +3140,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K58">
-        <v>0.3428571428571429</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3004,21 +3166,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K59">
-        <v>0.3055555555555556</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L59">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3030,21 +3192,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K60">
-        <v>0.2950819672131147</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3056,21 +3218,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K61">
-        <v>0.2542372881355932</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3082,21 +3244,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K62">
-        <v>0.1894736842105263</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L62">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M62">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3108,21 +3270,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K63">
-        <v>0.1889763779527559</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="L63">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M63">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3134,47 +3296,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K64">
-        <v>0.1374045801526718</v>
+        <v>0.1558752997601918</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>113</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K65">
-        <v>0.1287128712871287</v>
+        <v>0.1255813953488372</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3186,21 +3348,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>88</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K66">
-        <v>0.1284403669724771</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L66">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M66">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3212,21 +3374,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>95</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K67">
-        <v>0.1244019138755981</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L67">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M67">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3238,21 +3400,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K68">
-        <v>0.1209302325581395</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3264,21 +3426,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>189</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K69">
-        <v>0.1129807692307692</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L69">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3290,47 +3452,47 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>369</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K70">
-        <v>0.102803738317757</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="M70">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="N70">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>192</v>
+        <v>804</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K71">
-        <v>0.09433962264150944</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3342,15 +3504,15 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K72">
-        <v>0.09302325581395349</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="L72">
         <v>16</v>
@@ -3368,47 +3530,47 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K73">
-        <v>0.08588957055214724</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="L73">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N73">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>298</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K74">
-        <v>0.08501118568232663</v>
+        <v>0.07033639143730887</v>
       </c>
       <c r="L74">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3420,47 +3582,47 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>818</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K75">
-        <v>0.07666666666666666</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L75">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M75">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>831</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K76">
-        <v>0.06086956521739131</v>
+        <v>0.06770255271920089</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="M76">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3472,267 +3634,293 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>216</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K77">
-        <v>0.05863192182410423</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M77">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N77">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>289</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K78">
-        <v>0.0478395061728395</v>
+        <v>0.05519480519480519</v>
       </c>
       <c r="L78">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>617</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K79">
-        <v>0.04732510288065844</v>
+        <v>0.04887218045112782</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M79">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>463</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K80">
-        <v>0.03938115330520394</v>
+        <v>0.04742268041237113</v>
       </c>
       <c r="L80">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="M80">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="N80">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>2049</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K81">
-        <v>0.03008849557522124</v>
+        <v>0.04503464203233257</v>
       </c>
       <c r="L81">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="M81">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N81">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O81">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>548</v>
+        <v>827</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K82">
-        <v>0.02768166089965398</v>
+        <v>0.04172526957337084</v>
       </c>
       <c r="L82">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="M82">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>843</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K83">
-        <v>0.02419354838709677</v>
+        <v>0.04006163328197226</v>
       </c>
       <c r="L83">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M83">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="N83">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>3025</v>
+        <v>623</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K84">
-        <v>0.02277432712215321</v>
+        <v>0.02383419689119171</v>
       </c>
       <c r="L84">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M84">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N84">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="O84">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="K85">
-        <v>0.01469317199654278</v>
+        <v>0.01906916612798966</v>
       </c>
       <c r="L85">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M85">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="N85">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="O85">
-        <v>0.1899999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>1140</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K86">
-        <v>0.0115987460815047</v>
+        <v>0.01381692573402418</v>
       </c>
       <c r="L86">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M86">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N86">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="O86">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>3153</v>
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K87">
+        <v>0.01347117794486215</v>
+      </c>
+      <c r="L87">
+        <v>43</v>
+      </c>
+      <c r="M87">
+        <v>52</v>
+      </c>
+      <c r="N87">
+        <v>0.83</v>
+      </c>
+      <c r="O87">
+        <v>0.17</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>3149</v>
       </c>
     </row>
   </sheetData>
